--- a/Data/General/usageStats.xlsx
+++ b/Data/General/usageStats.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryan/Documents/GitHub/nba-dsai/Data/General/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9584DC5-1CEA-1246-B38F-4B25BB7A9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8680" yWindow="3140" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh2pWWm8aPO0MPB7IBcgnC5/L+41g=="/>
@@ -5028,21 +5037,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -5053,11 +5064,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -5071,33 +5088,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -5287,25 +5308,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5382,9 +5407,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -5462,9 +5487,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -5542,9 +5567,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>70</v>
@@ -5622,9 +5647,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>89</v>
@@ -5702,9 +5727,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>111</v>
@@ -5782,9 +5807,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>130</v>
@@ -5862,9 +5887,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>144</v>
@@ -5942,9 +5967,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>163</v>
@@ -6022,9 +6047,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>174</v>
@@ -6102,9 +6127,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>186</v>
@@ -6182,9 +6207,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>204</v>
@@ -6262,9 +6287,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>215</v>
@@ -6342,9 +6367,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>227</v>
@@ -6422,9 +6447,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>239</v>
@@ -6502,9 +6527,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>248</v>
@@ -6582,9 +6607,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>263</v>
@@ -6662,9 +6687,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>272</v>
@@ -6742,9 +6767,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>283</v>
@@ -6822,9 +6847,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>292</v>
@@ -6902,9 +6927,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>303</v>
@@ -6982,9 +7007,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>316</v>
@@ -7062,9 +7087,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>329</v>
@@ -7142,9 +7167,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>339</v>
@@ -7222,9 +7247,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>346</v>
@@ -7302,9 +7327,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>353</v>
@@ -7382,9 +7407,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>358</v>
@@ -7462,9 +7487,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>366</v>
@@ -7542,9 +7567,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>375</v>
@@ -7622,9 +7647,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>384</v>
@@ -7702,9 +7727,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>391</v>
@@ -7782,9 +7807,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>399</v>
@@ -7862,9 +7887,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>407</v>
@@ -7942,9 +7967,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>413</v>
@@ -8022,9 +8047,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>419</v>
@@ -8102,9 +8127,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>424</v>
@@ -8182,9 +8207,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>433</v>
@@ -8262,9 +8287,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>445</v>
@@ -8342,9 +8367,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>452</v>
@@ -8422,9 +8447,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>457</v>
@@ -8502,9 +8527,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>459</v>
@@ -8582,9 +8607,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>462</v>
@@ -8662,9 +8687,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>466</v>
@@ -8742,9 +8767,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>475</v>
@@ -8822,9 +8847,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>480</v>
@@ -8902,9 +8927,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>483</v>
@@ -8982,9 +9007,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>491</v>
@@ -9062,9 +9087,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>495</v>
@@ -9142,9 +9167,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>502</v>
@@ -9222,9 +9247,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>506</v>
@@ -9302,9 +9327,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>510</v>
@@ -9382,9 +9407,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>515</v>
@@ -9462,9 +9487,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>518</v>
@@ -9542,9 +9567,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>522</v>
@@ -9622,9 +9647,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>525</v>
@@ -9702,9 +9727,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>529</v>
@@ -9782,9 +9807,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>534</v>
@@ -9862,9 +9887,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>539</v>
@@ -9942,9 +9967,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>544</v>
@@ -10022,9 +10047,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>554</v>
@@ -10102,9 +10127,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>559</v>
@@ -10182,9 +10207,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>565</v>
@@ -10262,9 +10287,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>566</v>
@@ -10342,9 +10367,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>569</v>
@@ -10422,9 +10447,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>572</v>
@@ -10502,9 +10527,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>574</v>
@@ -10582,9 +10607,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>575</v>
@@ -10662,9 +10687,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>581</v>
@@ -10742,9 +10767,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>584</v>
@@ -10822,9 +10847,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>587</v>
@@ -10902,9 +10927,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>589</v>
@@ -10982,9 +11007,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>593</v>
@@ -11062,9 +11087,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>598</v>
@@ -11142,9 +11167,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>602</v>
@@ -11222,9 +11247,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>604</v>
@@ -11302,9 +11327,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>607</v>
@@ -11382,9 +11407,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>610</v>
@@ -11462,9 +11487,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>613</v>
@@ -11542,9 +11567,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>619</v>
@@ -11622,9 +11647,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>621</v>
@@ -11702,9 +11727,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>624</v>
@@ -11782,9 +11807,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>627</v>
@@ -11862,9 +11887,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>632</v>
@@ -11942,9 +11967,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>635</v>
@@ -12022,9 +12047,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>637</v>
@@ -12102,9 +12127,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>642</v>
@@ -12182,9 +12207,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>647</v>
@@ -12262,9 +12287,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>650</v>
@@ -12342,9 +12367,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>652</v>
@@ -12422,9 +12447,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>654</v>
@@ -12502,9 +12527,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>659</v>
@@ -12582,9 +12607,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>663</v>
@@ -12662,9 +12687,9 @@
         <v>667</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>668</v>
@@ -12742,9 +12767,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>670</v>
@@ -12822,9 +12847,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>672</v>
@@ -12902,9 +12927,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>677</v>
@@ -12982,9 +13007,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>680</v>
@@ -13062,9 +13087,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>684</v>
@@ -13142,9 +13167,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>685</v>
@@ -13222,9 +13247,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>688</v>
@@ -13302,9 +13327,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>691</v>
@@ -13382,9 +13407,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>697</v>
@@ -13462,9 +13487,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>699</v>
@@ -13542,9 +13567,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>701</v>
@@ -13622,9 +13647,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>703</v>
@@ -13702,9 +13727,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>706</v>
@@ -13782,9 +13807,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>709</v>
@@ -13862,9 +13887,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>711</v>
@@ -13942,9 +13967,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>715</v>
@@ -14022,9 +14047,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>717</v>
@@ -14102,9 +14127,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>723</v>
@@ -14182,9 +14207,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>725</v>
@@ -14262,9 +14287,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>727</v>
@@ -14342,9 +14367,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>729</v>
@@ -14422,9 +14447,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>731</v>
@@ -14502,9 +14527,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>737</v>
@@ -14582,9 +14607,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>743</v>
@@ -14662,9 +14687,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>747</v>
@@ -14742,9 +14767,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>749</v>
@@ -14822,9 +14847,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>753</v>
@@ -14902,9 +14927,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>758</v>
@@ -14982,9 +15007,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>761</v>
@@ -15062,9 +15087,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>763</v>
@@ -15142,9 +15167,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>765</v>
@@ -15222,9 +15247,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>767</v>
@@ -15302,9 +15327,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>770</v>
@@ -15382,9 +15407,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>772</v>
@@ -15462,9 +15487,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>776</v>
@@ -15542,9 +15567,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>779</v>
@@ -15622,9 +15647,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>784</v>
@@ -15702,9 +15727,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>786</v>
@@ -15782,9 +15807,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>791</v>
@@ -15862,9 +15887,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>792</v>
@@ -15942,9 +15967,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>794</v>
@@ -16022,9 +16047,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>796</v>
@@ -16102,9 +16127,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>800</v>
@@ -16182,9 +16207,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>804</v>
@@ -16262,9 +16287,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>806</v>
@@ -16342,9 +16367,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>808</v>
@@ -16422,9 +16447,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>810</v>
@@ -16502,9 +16527,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>814</v>
@@ -16582,9 +16607,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>819</v>
@@ -16662,9 +16687,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>821</v>
@@ -16742,9 +16767,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>823</v>
@@ -16822,9 +16847,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>827</v>
@@ -16902,9 +16927,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>829</v>
@@ -16982,9 +17007,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>831</v>
@@ -17062,9 +17087,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>833</v>
@@ -17142,9 +17167,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>835</v>
@@ -17222,9 +17247,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>838</v>
@@ -17302,9 +17327,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>840</v>
@@ -17382,9 +17407,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>842</v>
@@ -17462,9 +17487,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>845</v>
@@ -17542,9 +17567,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>846</v>
@@ -17622,9 +17647,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>848</v>
@@ -17702,9 +17727,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>850</v>
@@ -17782,9 +17807,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>853</v>
@@ -17862,9 +17887,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>856</v>
@@ -17942,9 +17967,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>859</v>
@@ -18022,9 +18047,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>862</v>
@@ -18102,9 +18127,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>866</v>
@@ -18182,9 +18207,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>868</v>
@@ -18262,9 +18287,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>871</v>
@@ -18342,9 +18367,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>873</v>
@@ -18422,9 +18447,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>875</v>
@@ -18502,9 +18527,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>877</v>
@@ -18582,9 +18607,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>879</v>
@@ -18662,9 +18687,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>882</v>
@@ -18742,9 +18767,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>884</v>
@@ -18822,9 +18847,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>886</v>
@@ -18902,9 +18927,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>888</v>
@@ -18982,9 +19007,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>890</v>
@@ -19062,9 +19087,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>896</v>
@@ -19142,9 +19167,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>899</v>
@@ -19222,9 +19247,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>900</v>
@@ -19302,9 +19327,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>903</v>
@@ -19382,9 +19407,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>907</v>
@@ -19462,9 +19487,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>909</v>
@@ -19542,9 +19567,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>911</v>
@@ -19622,9 +19647,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>914</v>
@@ -19702,9 +19727,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>916</v>
@@ -19782,9 +19807,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>919</v>
@@ -19862,9 +19887,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>921</v>
@@ -19942,9 +19967,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>923</v>
@@ -20022,9 +20047,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>926</v>
@@ -20102,9 +20127,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>928</v>
@@ -20182,9 +20207,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>930</v>
@@ -20262,9 +20287,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>933</v>
@@ -20342,9 +20367,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>935</v>
@@ -20422,9 +20447,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>937</v>
@@ -20502,9 +20527,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>940</v>
@@ -20582,9 +20607,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>942</v>
@@ -20662,9 +20687,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>946</v>
@@ -20742,9 +20767,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>947</v>
@@ -20822,9 +20847,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>949</v>
@@ -20902,9 +20927,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>952</v>
@@ -20982,9 +21007,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>954</v>
@@ -21062,9 +21087,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>959</v>
@@ -21142,9 +21167,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>960</v>
@@ -21222,9 +21247,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>962</v>
@@ -21302,9 +21327,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>965</v>
@@ -21382,9 +21407,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>967</v>
@@ -21462,9 +21487,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>969</v>
@@ -21542,9 +21567,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>972</v>
@@ -21622,9 +21647,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>975</v>
@@ -21702,9 +21727,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>977</v>
@@ -21782,9 +21807,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>979</v>
@@ -21862,9 +21887,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>981</v>
@@ -21942,9 +21967,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>983</v>
@@ -22022,9 +22047,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>986</v>
@@ -22102,9 +22127,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>988</v>
@@ -22182,9 +22207,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>990</v>
@@ -22262,9 +22287,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>993</v>
@@ -22342,9 +22367,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>995</v>
@@ -22422,9 +22447,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>997</v>
@@ -22502,9 +22527,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>1000</v>
@@ -22582,9 +22607,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>1002</v>
@@ -22662,9 +22687,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>1004</v>
@@ -22742,9 +22767,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>1006</v>
@@ -22822,9 +22847,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>1009</v>
@@ -22902,9 +22927,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>1013</v>
@@ -22982,9 +23007,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>1015</v>
@@ -23062,9 +23087,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>1018</v>
@@ -23142,9 +23167,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>1020</v>
@@ -23222,9 +23247,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>1022</v>
@@ -23302,9 +23327,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>1024</v>
@@ -23382,9 +23407,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>1027</v>
@@ -23462,9 +23487,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1029</v>
@@ -23542,9 +23567,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1031</v>
@@ -23622,9 +23647,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>1033</v>
@@ -23702,9 +23727,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>1038</v>
@@ -23782,9 +23807,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>1041</v>
@@ -23862,9 +23887,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>1043</v>
@@ -23942,9 +23967,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>1045</v>
@@ -24022,9 +24047,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>1047</v>
@@ -24102,9 +24127,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>1050</v>
@@ -24182,9 +24207,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>1054</v>
@@ -24262,9 +24287,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>1056</v>
@@ -24342,9 +24367,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>1058</v>
@@ -24422,9 +24447,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>1061</v>
@@ -24502,9 +24527,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>1063</v>
@@ -24582,9 +24607,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1065</v>
@@ -24662,9 +24687,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>1067</v>
@@ -24742,9 +24767,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1069</v>
@@ -24822,9 +24847,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1071</v>
@@ -24902,9 +24927,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>1074</v>
@@ -24982,9 +25007,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>1076</v>
@@ -25062,9 +25087,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>1079</v>
@@ -25142,9 +25167,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>1081</v>
@@ -25222,9 +25247,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>1083</v>
@@ -25302,9 +25327,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>1085</v>
@@ -25382,9 +25407,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>1087</v>
@@ -25462,9 +25487,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>1091</v>
@@ -25542,9 +25567,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>1093</v>
@@ -25622,9 +25647,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1095</v>
@@ -25702,9 +25727,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>1097</v>
@@ -25782,9 +25807,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>1099</v>
@@ -25862,9 +25887,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>1101</v>
@@ -25942,9 +25967,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1103</v>
@@ -26022,9 +26047,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1105</v>
@@ -26102,9 +26127,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>1107</v>
@@ -26182,9 +26207,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1109</v>
@@ -26262,9 +26287,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>1110</v>
@@ -26342,9 +26367,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1112</v>
@@ -26422,9 +26447,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>1114</v>
@@ -26502,9 +26527,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>1115</v>
@@ -26582,9 +26607,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1117</v>
@@ -26662,9 +26687,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>1120</v>
@@ -26742,9 +26767,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>1124</v>
@@ -26822,9 +26847,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>1126</v>
@@ -26902,9 +26927,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>1132</v>
@@ -26982,9 +27007,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>1134</v>
@@ -27062,9 +27087,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>1136</v>
@@ -27142,9 +27167,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>1140</v>
@@ -27222,9 +27247,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>1143</v>
@@ -27302,9 +27327,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>1145</v>
@@ -27382,9 +27407,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>1150</v>
@@ -27462,9 +27487,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>1152</v>
@@ -27542,9 +27567,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>1154</v>
@@ -27622,9 +27647,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>1156</v>
@@ -27702,9 +27727,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>1158</v>
@@ -27782,9 +27807,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>1160</v>
@@ -27862,9 +27887,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>1162</v>
@@ -27942,9 +27967,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>1164</v>
@@ -28022,9 +28047,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>1167</v>
@@ -28102,9 +28127,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>1170</v>
@@ -28182,9 +28207,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>1172</v>
@@ -28262,9 +28287,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>1175</v>
@@ -28342,9 +28367,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>1177</v>
@@ -28422,9 +28447,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>1180</v>
@@ -28502,9 +28527,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>1183</v>
@@ -28582,9 +28607,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>1185</v>
@@ -28662,9 +28687,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>1187</v>
@@ -28742,9 +28767,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>1189</v>
@@ -28822,9 +28847,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>1191</v>
@@ -28902,9 +28927,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>1192</v>
@@ -28982,9 +29007,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>1196</v>
@@ -29062,9 +29087,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>1198</v>
@@ -29142,9 +29167,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>1200</v>
@@ -29222,9 +29247,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>1202</v>
@@ -29302,9 +29327,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>1204</v>
@@ -29382,9 +29407,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>1207</v>
@@ -29462,9 +29487,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>1212</v>
@@ -29542,9 +29567,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>1214</v>
@@ -29622,9 +29647,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>1216</v>
@@ -29702,9 +29727,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>1217</v>
@@ -29782,9 +29807,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>1219</v>
@@ -29862,9 +29887,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>1221</v>
@@ -29942,9 +29967,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>1223</v>
@@ -30022,9 +30047,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>1226</v>
@@ -30102,9 +30127,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>1228</v>
@@ -30182,9 +30207,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>1230</v>
@@ -30262,9 +30287,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>1232</v>
@@ -30342,9 +30367,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>1234</v>
@@ -30422,9 +30447,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>1237</v>
@@ -30502,9 +30527,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>1239</v>
@@ -30582,9 +30607,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>1241</v>
@@ -30662,9 +30687,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>1243</v>
@@ -30742,9 +30767,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>1244</v>
@@ -30822,9 +30847,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>1246</v>
@@ -30902,9 +30927,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>1248</v>
@@ -30982,9 +31007,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>1250</v>
@@ -31062,9 +31087,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>1252</v>
@@ -31142,9 +31167,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>1254</v>
@@ -31222,9 +31247,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>1258</v>
@@ -31302,9 +31327,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>1260</v>
@@ -31382,9 +31407,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>1262</v>
@@ -31462,9 +31487,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>1264</v>
@@ -31542,9 +31567,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1267</v>
@@ -31622,9 +31647,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>1269</v>
@@ -31702,9 +31727,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>1271</v>
@@ -31782,9 +31807,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>1273</v>
@@ -31862,9 +31887,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>1275</v>
@@ -31942,9 +31967,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>1277</v>
@@ -32022,9 +32047,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>1279</v>
@@ -32102,9 +32127,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>1280</v>
@@ -32182,9 +32207,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1282</v>
@@ -32262,9 +32287,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1284</v>
@@ -32342,9 +32367,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1286</v>
@@ -32422,9 +32447,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>1288</v>
@@ -32502,9 +32527,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>1290</v>
@@ -32582,9 +32607,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>1292</v>
@@ -32662,9 +32687,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1294</v>
@@ -32742,9 +32767,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>1296</v>
@@ -32822,9 +32847,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>1298</v>
@@ -32902,9 +32927,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>1300</v>
@@ -32982,9 +33007,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>1302</v>
@@ -33062,9 +33087,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>1303</v>
@@ -33142,9 +33167,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>1305</v>
@@ -33222,9 +33247,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>1307</v>
@@ -33302,9 +33327,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>1309</v>
@@ -33382,9 +33407,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>1311</v>
@@ -33462,9 +33487,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1313</v>
@@ -33542,9 +33567,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>1315</v>
@@ -33622,9 +33647,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>1317</v>
@@ -33702,9 +33727,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1319</v>
@@ -33782,9 +33807,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1321</v>
@@ -33862,9 +33887,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>1323</v>
@@ -33942,9 +33967,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>1325</v>
@@ -34022,9 +34047,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>1327</v>
@@ -34102,9 +34127,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>1329</v>
@@ -34182,9 +34207,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>1331</v>
@@ -34262,9 +34287,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1333</v>
@@ -34342,9 +34367,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>1335</v>
@@ -34422,9 +34447,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>1337</v>
@@ -34502,9 +34527,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1340</v>
@@ -34582,9 +34607,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>1342</v>
@@ -34662,9 +34687,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1344</v>
@@ -34742,9 +34767,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>1346</v>
@@ -34822,9 +34847,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1348</v>
@@ -34902,9 +34927,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1349</v>
@@ -34982,9 +35007,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1351</v>
@@ -35062,9 +35087,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1352</v>
@@ -35142,9 +35167,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1355</v>
@@ -35222,9 +35247,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1358</v>
@@ -35302,9 +35327,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>1360</v>
@@ -35382,9 +35407,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>1362</v>
@@ -35462,9 +35487,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>1366</v>
@@ -35542,9 +35567,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>1368</v>
@@ -35622,9 +35647,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>1370</v>
@@ -35702,9 +35727,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>1372</v>
@@ -35782,9 +35807,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>1374</v>
@@ -35862,9 +35887,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1376</v>
@@ -35942,9 +35967,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>1379</v>
@@ -36022,9 +36047,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>1381</v>
@@ -36102,9 +36127,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>1384</v>
@@ -36182,9 +36207,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>1386</v>
@@ -36262,9 +36287,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>1390</v>
@@ -36342,9 +36367,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>1392</v>
@@ -36422,9 +36447,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>1394</v>
@@ -36502,9 +36527,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>1397</v>
@@ -36582,9 +36607,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>1399</v>
@@ -36662,9 +36687,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>1401</v>
@@ -36742,9 +36767,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>1403</v>
@@ -36822,9 +36847,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>1405</v>
@@ -36902,9 +36927,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>1407</v>
@@ -36982,9 +37007,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>1409</v>
@@ -37062,9 +37087,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>1412</v>
@@ -37142,9 +37167,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>1414</v>
@@ -37222,9 +37247,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>1416</v>
@@ -37302,9 +37327,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>1418</v>
@@ -37382,9 +37407,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>1420</v>
@@ -37462,9 +37487,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>1422</v>
@@ -37542,9 +37567,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>1424</v>
@@ -37622,9 +37647,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>1425</v>
@@ -37702,9 +37727,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>1427</v>
@@ -37782,9 +37807,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>1429</v>
@@ -37862,9 +37887,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>1431</v>
@@ -37942,9 +37967,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>1433</v>
@@ -38022,9 +38047,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>1434</v>
@@ -38102,9 +38127,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>1437</v>
@@ -38182,9 +38207,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>1439</v>
@@ -38262,9 +38287,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>1442</v>
@@ -38342,9 +38367,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>1445</v>
@@ -38422,9 +38447,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>1447</v>
@@ -38502,9 +38527,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>1450</v>
@@ -38582,9 +38607,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>1452</v>
@@ -38662,9 +38687,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>1454</v>
@@ -38742,9 +38767,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>1456</v>
@@ -38822,9 +38847,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>1459</v>
@@ -38902,9 +38927,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>1461</v>
@@ -38982,9 +39007,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>1463</v>
@@ -39062,9 +39087,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>1464</v>
@@ -39142,9 +39167,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>1466</v>
@@ -39222,9 +39247,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>1469</v>
@@ -39302,9 +39327,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>1471</v>
@@ -39382,9 +39407,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>1473</v>
@@ -39462,9 +39487,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>1475</v>
@@ -39542,9 +39567,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>1477</v>
@@ -39622,9 +39647,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>1479</v>
@@ -39702,9 +39727,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>1482</v>
@@ -39782,9 +39807,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>1484</v>
@@ -39862,9 +39887,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>1485</v>
@@ -39942,9 +39967,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>1487</v>
@@ -40022,9 +40047,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>1489</v>
@@ -40102,9 +40127,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>1491</v>
@@ -40182,9 +40207,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>1493</v>
@@ -40262,9 +40287,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>1495</v>
@@ -40342,9 +40367,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>1496</v>
@@ -40422,9 +40447,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>1498</v>
@@ -40502,9 +40527,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>1500</v>
@@ -40582,9 +40607,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>1503</v>
@@ -40662,9 +40687,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>1506</v>
@@ -40742,9 +40767,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>1508</v>
@@ -40822,9 +40847,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>1510</v>
@@ -40902,9 +40927,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>1513</v>
@@ -40982,9 +41007,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>1515</v>
@@ -41062,9 +41087,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>1517</v>
@@ -41142,9 +41167,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>1519</v>
@@ -41222,9 +41247,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>1521</v>
@@ -41302,9 +41327,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>1523</v>
@@ -41382,9 +41407,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>1525</v>
@@ -41462,9 +41487,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>1527</v>
@@ -41542,9 +41567,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>1529</v>
@@ -41622,9 +41647,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>453.0</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>1531</v>
@@ -41702,9 +41727,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>1533</v>
@@ -41782,9 +41807,9 @@
         <v>837</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>1534</v>
@@ -41862,9 +41887,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>456.0</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>1537</v>
@@ -41942,9 +41967,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>457.0</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>1539</v>
@@ -42022,9 +42047,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>1540</v>
@@ -42102,9 +42127,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>1543</v>
@@ -42182,9 +42207,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>1544</v>
@@ -42262,9 +42287,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>1546</v>
@@ -42342,9 +42367,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>1547</v>
@@ -42422,9 +42447,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>463.0</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>1549</v>
@@ -42502,9 +42527,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>1551</v>
@@ -42582,9 +42607,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>1553</v>
@@ -42662,9 +42687,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>1555</v>
@@ -42742,9 +42767,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>1557</v>
@@ -42822,9 +42847,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>1559</v>
@@ -42902,9 +42927,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>469.0</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>1561</v>
@@ -42982,9 +43007,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>1563</v>
@@ -43062,9 +43087,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>471.0</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>1565</v>
@@ -43142,9 +43167,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>1567</v>
@@ -43222,9 +43247,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>473.0</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>1570</v>
@@ -43302,9 +43327,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>1572</v>
@@ -43382,9 +43407,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>1576</v>
@@ -43462,9 +43487,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>1577</v>
@@ -43542,9 +43567,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>477.0</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>1579</v>
@@ -43622,9 +43647,9 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>478.0</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>1581</v>
@@ -43702,9 +43727,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>479.0</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>1583</v>
@@ -43782,9 +43807,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>1584</v>
@@ -43862,9 +43887,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>481.0</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>1585</v>
@@ -43942,9 +43967,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>1586</v>
@@ -44022,9 +44047,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>1588</v>
@@ -44102,9 +44127,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>1589</v>
@@ -44182,9 +44207,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>1591</v>
@@ -44262,9 +44287,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>486.0</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>1592</v>
@@ -44342,9 +44367,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>1594</v>
@@ -44422,9 +44447,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>1595</v>
@@ -44502,9 +44527,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>1597</v>
@@ -44582,9 +44607,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>1599</v>
@@ -44662,9 +44687,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>491.0</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>1601</v>
@@ -44742,9 +44767,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>1603</v>
@@ -44822,9 +44847,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>493.0</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>1605</v>
@@ -44902,9 +44927,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>494.0</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>1606</v>
@@ -44982,9 +45007,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>1608</v>
@@ -45062,9 +45087,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>496.0</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>1610</v>
@@ -45142,9 +45167,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>497.0</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>1612</v>
@@ -45222,9 +45247,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>1613</v>
@@ -45302,9 +45327,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>499.0</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>1615</v>
@@ -45382,9 +45407,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>1617</v>
@@ -45462,9 +45487,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>1618</v>
@@ -45542,9 +45567,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>1619</v>
@@ -45622,9 +45647,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>1620</v>
@@ -45702,9 +45727,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>1622</v>
@@ -45782,9 +45807,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>1623</v>
@@ -45862,9 +45887,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>1624</v>
@@ -45942,9 +45967,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>1625</v>
@@ -46022,9 +46047,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>1627</v>
@@ -46102,9 +46127,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>1630</v>
@@ -46182,9 +46207,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>1632</v>
@@ -46262,9 +46287,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>1633</v>
@@ -46342,9 +46367,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>512.0</v>
+        <v>512</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>1634</v>
@@ -46422,9 +46447,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>1638</v>
@@ -46502,9 +46527,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>1639</v>
@@ -46582,9 +46607,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>1640</v>
@@ -46662,9 +46687,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>516.0</v>
+        <v>516</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>1642</v>
@@ -46742,9 +46767,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>1643</v>
@@ -46822,9 +46847,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>1645</v>
@@ -46902,9 +46927,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>1646</v>
@@ -46982,9 +47007,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>1648</v>
@@ -47062,9 +47087,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>1649</v>
@@ -47142,9 +47167,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>1650</v>
@@ -47222,9 +47247,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>1651</v>
@@ -47302,9 +47327,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>524.0</v>
+        <v>524</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>1652</v>
@@ -47382,9 +47407,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>1653</v>
@@ -47462,9 +47487,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>1655</v>
@@ -47542,9 +47567,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>527.0</v>
+        <v>527</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>1656</v>
@@ -47622,9 +47647,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>1657</v>
@@ -47702,9 +47727,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>1658</v>
@@ -47782,9 +47807,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>1659</v>
@@ -47862,9 +47887,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>1660</v>
@@ -47942,9 +47967,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>1661</v>
@@ -48022,9 +48047,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>533.0</v>
+        <v>533</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>1662</v>
@@ -48102,9 +48127,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>1663</v>
@@ -48182,9 +48207,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>1664</v>
@@ -48262,9 +48287,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>536.0</v>
+        <v>536</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>1665</v>
@@ -48342,9 +48367,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>537.0</v>
+        <v>537</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>1666</v>
@@ -48422,9 +48447,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>1667</v>
@@ -48502,9 +48527,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>539.0</v>
+        <v>539</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>1668</v>
@@ -48582,469 +48607,467 @@
         <v>295</v>
       </c>
     </row>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>